--- a/biology/Biologie cellulaire et moléculaire/Séquenceur_d'ADN/Séquenceur_d'ADN.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Séquenceur_d'ADN/Séquenceur_d'ADN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9quenceur_d%27ADN</t>
+          <t>Séquenceur_d'ADN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un séquenceur d'ADN est un appareil conçu pour effectuer le séquençage de l'ADN de manière automatique. Un séquenceur détermine l'ordre des bases nucléiques d'un échantillon d'ADN et le présente, après traitement, sous forme d'une suite de lettres appelée read ou lecture où chaque lettre représente un nucléotide. En augmentant la productivité des agents humains, ces appareils rendent possibles les grands projets de séquençage tels ceux qui visent à déchiffrer des génomes entiers. Certains séquenceurs dont le fonctionnement s'appuie sur l'analyse des signaux lumineux émis par des fluorochromes fixés aux nucléotides peuvent être considérés comme des appareils optiques.
 Le principe de la réaction de séquençage utilisée dans ces appareils est dérivé de celui de la méthode de Sanger. Il se fonde toujours sur l'utilisation de didésoxyribonucléotides (dd-NTP), mais optimisée par l'utilisation de marqueurs fluorescents à la place de marqueurs radioactifs.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9quenceur_d%27ADN</t>
+          <t>Séquenceur_d'ADN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Automatisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle requiert l'emploi :
 d'un système d'électrophorèse piloté par ordinateur,
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9quenceur_d%27ADN</t>
+          <t>Séquenceur_d'ADN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Séquenceurs à plaques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On fait passer quatre réactions de séquençage (1 pour chaque type de nucléotide) sur 4 lignes différentes ou non.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9quenceur_d%27ADN</t>
+          <t>Séquenceur_d'ADN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,15 +595,12 @@
           <t>Séquenceurs capillaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un séquenceur de gène capillaire utilise des tubes capillaires de verre de seulement quelques microns de diamètre, sur plusieurs dizaines de centimètres de longueur (30 à 50 cm en général), pour réaliser la séparation des brins d'ADN durant l'électrophorèse.
 Les quatre nucléotides passent dans le même tube capillaire. Il faut donc utiliser quatre marqueurs fluorescents différents pour caractériser les quatre nucléotides du brin d'ADN séquencé (adénine, guanine, thymine, cytosine). 
-Séquenceur monocapillaire
-Muni d'un seul capillaire. Une seule migration électrophorétique a lieu à la fois.
-Séquenceur multicapillaire
-Avec généralement un nombre de capillaires multiple de 2 (2, 4, 8, 16, 96…)
-On multiplie ainsi le nombre de migrations simultanées, ce qui permet de passer un plus grand nombre d'échantillons dans le même laps de temps.
 </t>
         </is>
       </c>
@@ -598,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9quenceur_d%27ADN</t>
+          <t>Séquenceur_d'ADN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,17 +626,131 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Séquenceurs capillaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Séquenceur monocapillaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muni d'un seul capillaire. Une seule migration électrophorétique a lieu à la fois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Séquenceur_d'ADN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quenceur_d%27ADN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Séquenceurs capillaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séquenceur multicapillaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec généralement un nombre de capillaires multiple de 2 (2, 4, 8, 16, 96…)
+On multiplie ainsi le nombre de migrations simultanées, ce qui permet de passer un plus grand nombre d'échantillons dans le même laps de temps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Séquenceur_d'ADN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quenceur_d%27ADN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Constructeurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Séquenceurs capillaires
-PerkinElmer
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Séquenceurs capillaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PerkinElmer
 Beckman Coulter
-Applied Biosystems
-Séquenceur haut débit
-Depuis 2005 de nouvelles méthodes de séquençage massif ayant en commun le clonage et l'amplification moléculaire ont été développées. Ces méthodes permettent d’amplifier spécifiquement un fragment d’ADN isolé soit dans des microgouttes d’huiles (GS-FLX, Roche) soit par fixation sur lame (Solexa). Les étapes de clonage bactérien particulièrement longues sont ainsi évitées. Trois méthodes utilisent actuellement ce nouveau système :
+Applied Biosystems</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Séquenceur_d'ADN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quenceur_d%27ADN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Constructeurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Séquenceur haut débit</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2005 de nouvelles méthodes de séquençage massif ayant en commun le clonage et l'amplification moléculaire ont été développées. Ces méthodes permettent d’amplifier spécifiquement un fragment d’ADN isolé soit dans des microgouttes d’huiles (GS-FLX, Roche) soit par fixation sur lame (Solexa). Les étapes de clonage bactérien particulièrement longues sont ainsi évitées. Trois méthodes utilisent actuellement ce nouveau système :
 le GS Flex basé sur l'amplification de l'ADN lié spécifiquement à une bille en émulsion et le pyroséquençage (luminescence par libération de pyrophosphate)
 le Solexa basé sur l'amplification, l’accrochage-liaison sur puce et l'utilisation de terminateurs de chaîne réversibles marqués par des fluorochromes,
 le SOLiD basé sur l'amplification par émulsion et l'hybridation-ligature chimique.
@@ -632,31 +759,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>S%C3%A9quenceur_d%27ADN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/S%C3%A9quenceur_d%27ADN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Séquenceur_d'ADN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9quenceur_d%27ADN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Autres applications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Polymorphisme de conformation des simples brins</t>
         </is>
